--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -6,13 +6,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>Table 1</t>
   </si>
@@ -504,6 +503,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>20-Apr-2021</t>
   </si>
 </sst>
 </file>
@@ -583,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -756,43 +758,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -844,10 +816,10 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -866,18 +838,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3345,7 +3305,7 @@
       <c r="Y5" t="s" s="6">
         <v>156</v>
       </c>
-      <c r="Z5" t="s" s="18">
+      <c r="Z5" t="s" s="17">
         <v>157</v>
       </c>
       <c r="AA5" t="s" s="6">
@@ -3656,267 +3616,521 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
-      <c r="CQ6" s="21"/>
-      <c r="CR6" s="21"/>
-      <c r="CS6" s="21"/>
-      <c r="CT6" s="21"/>
-      <c r="CU6" s="21"/>
-      <c r="CV6" s="21"/>
-      <c r="CW6" s="21"/>
-      <c r="CX6" s="21"/>
-      <c r="CY6" s="21"/>
-      <c r="CZ6" s="21"/>
-      <c r="DA6" s="21"/>
-      <c r="DB6" s="21"/>
-      <c r="DC6" s="21"/>
-      <c r="DD6" s="21"/>
-      <c r="DE6" s="21"/>
-      <c r="DF6" s="21"/>
-      <c r="DG6" s="21"/>
-      <c r="DH6" s="21"/>
-      <c r="DI6" s="21"/>
-      <c r="DJ6" s="21"/>
-      <c r="DK6" s="21"/>
-      <c r="DL6" s="21"/>
-      <c r="DM6" s="21"/>
-      <c r="DN6" s="21"/>
-      <c r="DO6" s="21"/>
-      <c r="DP6" s="21"/>
-      <c r="DQ6" s="21"/>
-      <c r="DR6" s="21"/>
-      <c r="DS6" s="21"/>
-      <c r="DT6" s="21"/>
-      <c r="DU6" s="21"/>
-      <c r="DV6" s="21"/>
-      <c r="DW6" s="21"/>
-      <c r="DX6" s="21"/>
-      <c r="DY6" s="21"/>
+    <row r="6" ht="49.55" customHeight="1">
+      <c r="A6" t="s" s="6">
+        <v>164</v>
+      </c>
+      <c r="B6" s="8">
+        <v>376962</v>
+      </c>
+      <c r="C6" s="8">
+        <v>52977</v>
+      </c>
+      <c r="D6" s="8">
+        <v>317767</v>
+      </c>
+      <c r="E6" s="8">
+        <v>6218</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1277</v>
+      </c>
+      <c r="G6" s="8">
+        <v>25.4306078</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1921828</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="8">
+        <v>20204</v>
+      </c>
+      <c r="K6" s="8">
+        <v>18255</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1949</v>
+      </c>
+      <c r="M6" s="8">
+        <v>5138</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="8">
+        <v>5138</v>
+      </c>
+      <c r="P6" s="8">
+        <v>55</v>
+      </c>
+      <c r="Q6" t="s" s="6">
+        <v>148</v>
+      </c>
+      <c r="R6" t="s" s="6">
+        <v>149</v>
+      </c>
+      <c r="S6" t="s" s="6">
+        <v>150</v>
+      </c>
+      <c r="T6" t="s" s="18">
+        <v>151</v>
+      </c>
+      <c r="U6" t="s" s="6">
+        <v>152</v>
+      </c>
+      <c r="V6" t="s" s="6">
+        <v>153</v>
+      </c>
+      <c r="W6" t="s" s="6">
+        <v>154</v>
+      </c>
+      <c r="X6" t="s" s="6">
+        <v>155</v>
+      </c>
+      <c r="Y6" t="s" s="6">
+        <v>156</v>
+      </c>
+      <c r="Z6" t="s" s="18">
+        <v>157</v>
+      </c>
+      <c r="AA6" t="s" s="6">
+        <v>158</v>
+      </c>
+      <c r="AB6" t="s" s="6">
+        <v>159</v>
+      </c>
+      <c r="AC6" t="s" s="6">
+        <v>160</v>
+      </c>
+      <c r="AD6" t="s" s="6">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="s" s="6">
+        <v>162</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>374</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>188</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>461</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>216</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>877</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>191</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>223</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>332</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>523</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>267</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>487</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>173</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>401</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>357</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>22910</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>12626</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>22628</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>33198</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>15662</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>44180</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>23367</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>19231</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>24918</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>33723</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>15090</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>29538</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>14845</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>28413</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>20093</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>42486</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>9415</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>1076</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>9538</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>381</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>6177</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>148</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>2080</v>
+      </c>
+      <c r="BR6" s="8">
+        <v>229</v>
+      </c>
+      <c r="BS6" s="8">
+        <v>679</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="8">
+        <v>602</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>2</v>
+      </c>
+      <c r="BW6" s="8">
+        <v>2000</v>
+      </c>
+      <c r="BX6" s="8">
+        <v>922</v>
+      </c>
+      <c r="BY6" s="8">
+        <v>42486</v>
+      </c>
+      <c r="BZ6" s="8">
+        <v>56000</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>57146</v>
+      </c>
+      <c r="CB6" s="8">
+        <v>40403</v>
+      </c>
+      <c r="CC6" s="8">
+        <v>57264</v>
+      </c>
+      <c r="CD6" s="8">
+        <v>58249</v>
+      </c>
+      <c r="CE6" s="8">
+        <v>15354</v>
+      </c>
+      <c r="CF6" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="CG6" s="8">
+        <v>254572</v>
+      </c>
+      <c r="CH6" s="8">
+        <v>35042</v>
+      </c>
+      <c r="CI6" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="CJ6" s="8">
+        <v>235510</v>
+      </c>
+      <c r="CK6" s="8">
+        <v>11330</v>
+      </c>
+      <c r="CL6" s="8">
+        <v>85</v>
+      </c>
+      <c r="CM6" s="8">
+        <v>67</v>
+      </c>
+      <c r="CN6" s="8">
+        <v>5</v>
+      </c>
+      <c r="CO6" s="8">
+        <v>5553</v>
+      </c>
+      <c r="CP6" s="8">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="8">
+        <v>158</v>
+      </c>
+      <c r="CR6" s="8">
+        <v>4</v>
+      </c>
+      <c r="CS6" s="8">
+        <v>5160403</v>
+      </c>
+      <c r="CT6" s="8">
+        <v>87387</v>
+      </c>
+      <c r="CU6" s="8">
+        <v>1256738</v>
+      </c>
+      <c r="CV6" s="8">
+        <v>17707</v>
+      </c>
+      <c r="CW6" s="8">
+        <v>3903665</v>
+      </c>
+      <c r="CX6" s="8">
+        <v>69680</v>
+      </c>
+      <c r="CY6" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="CZ6" s="8">
+        <v>510</v>
+      </c>
+      <c r="DA6" s="8">
+        <v>227</v>
+      </c>
+      <c r="DB6" s="8">
+        <v>241</v>
+      </c>
+      <c r="DC6" s="8">
+        <v>42</v>
+      </c>
+      <c r="DD6" s="8">
+        <v>8</v>
+      </c>
+      <c r="DE6" s="8">
+        <v>9</v>
+      </c>
+      <c r="DF6" s="8">
+        <v>194</v>
+      </c>
+      <c r="DG6" s="8">
+        <v>83</v>
+      </c>
+      <c r="DH6" s="8">
+        <v>1051</v>
+      </c>
+      <c r="DI6" s="8">
+        <v>577</v>
+      </c>
+      <c r="DJ6" s="8">
+        <v>2687</v>
+      </c>
+      <c r="DK6" s="8">
+        <v>1292</v>
+      </c>
+      <c r="DL6" s="8">
+        <v>5901</v>
+      </c>
+      <c r="DM6" s="8">
+        <v>597</v>
+      </c>
+      <c r="DN6" s="8">
+        <v>449</v>
+      </c>
+      <c r="DO6" s="8">
+        <v>44</v>
+      </c>
+      <c r="DP6" s="8">
+        <v>207</v>
+      </c>
+      <c r="DQ6" s="8">
+        <v>187</v>
+      </c>
+      <c r="DR6" s="8">
+        <v>26</v>
+      </c>
+      <c r="DS6" s="8">
+        <v>30</v>
+      </c>
+      <c r="DT6" s="8">
+        <v>59</v>
+      </c>
+      <c r="DU6" s="8">
+        <v>26</v>
+      </c>
+      <c r="DV6" t="s" s="6">
+        <v>146</v>
+      </c>
+      <c r="DW6" s="8">
+        <v>612</v>
+      </c>
+      <c r="DX6" s="8">
+        <v>1924</v>
+      </c>
+      <c r="DY6" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
       <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22"/>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22"/>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
-      <c r="CS7" s="22"/>
-      <c r="CT7" s="22"/>
-      <c r="CU7" s="22"/>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="22"/>
-      <c r="CY7" s="22"/>
-      <c r="CZ7" s="22"/>
-      <c r="DA7" s="22"/>
-      <c r="DB7" s="22"/>
-      <c r="DC7" s="22"/>
-      <c r="DD7" s="22"/>
-      <c r="DE7" s="22"/>
-      <c r="DF7" s="22"/>
-      <c r="DG7" s="22"/>
-      <c r="DH7" s="22"/>
-      <c r="DI7" s="22"/>
-      <c r="DJ7" s="22"/>
-      <c r="DK7" s="22"/>
-      <c r="DL7" s="22"/>
-      <c r="DM7" s="22"/>
-      <c r="DN7" s="22"/>
-      <c r="DO7" s="22"/>
-      <c r="DP7" s="22"/>
-      <c r="DQ7" s="22"/>
-      <c r="DR7" s="22"/>
-      <c r="DS7" s="22"/>
-      <c r="DT7" s="22"/>
-      <c r="DU7" s="22"/>
-      <c r="DV7" s="22"/>
-      <c r="DW7" s="22"/>
-      <c r="DX7" s="22"/>
-      <c r="DY7" s="22"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="21"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
+      <c r="AR7" s="21"/>
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
+      <c r="CQ7" s="21"/>
+      <c r="CR7" s="21"/>
+      <c r="CS7" s="21"/>
+      <c r="CT7" s="21"/>
+      <c r="CU7" s="21"/>
+      <c r="CV7" s="21"/>
+      <c r="CW7" s="21"/>
+      <c r="CX7" s="21"/>
+      <c r="CY7" s="21"/>
+      <c r="CZ7" s="21"/>
+      <c r="DA7" s="21"/>
+      <c r="DB7" s="21"/>
+      <c r="DC7" s="21"/>
+      <c r="DD7" s="21"/>
+      <c r="DE7" s="21"/>
+      <c r="DF7" s="21"/>
+      <c r="DG7" s="21"/>
+      <c r="DH7" s="21"/>
+      <c r="DI7" s="21"/>
+      <c r="DJ7" s="21"/>
+      <c r="DK7" s="21"/>
+      <c r="DL7" s="21"/>
+      <c r="DM7" s="21"/>
+      <c r="DN7" s="21"/>
+      <c r="DO7" s="21"/>
+      <c r="DP7" s="21"/>
+      <c r="DQ7" s="21"/>
+      <c r="DR7" s="21"/>
+      <c r="DS7" s="21"/>
+      <c r="DT7" s="21"/>
+      <c r="DU7" s="21"/>
+      <c r="DV7" s="21"/>
+      <c r="DW7" s="21"/>
+      <c r="DX7" s="21"/>
+      <c r="DY7" s="21"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="23"/>
@@ -6024,1061 +6238,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:DX6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="128" width="16.3516" style="25" customWidth="1"/>
-    <col min="129" max="256" width="16.3516" style="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
-      <c r="BX1" s="2"/>
-      <c r="BY1" s="2"/>
-      <c r="BZ1" s="2"/>
-      <c r="CA1" s="2"/>
-      <c r="CB1" s="2"/>
-      <c r="CC1" s="2"/>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CL1" s="2"/>
-      <c r="CM1" s="2"/>
-      <c r="CN1" s="2"/>
-      <c r="CO1" s="2"/>
-      <c r="CP1" s="2"/>
-      <c r="CQ1" s="2"/>
-      <c r="CR1" s="2"/>
-      <c r="CS1" s="2"/>
-      <c r="CT1" s="2"/>
-      <c r="CU1" s="2"/>
-      <c r="CV1" s="2"/>
-      <c r="CW1" s="2"/>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
-      <c r="DF1" s="2"/>
-      <c r="DG1" s="2"/>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2"/>
-      <c r="DJ1" s="2"/>
-      <c r="DK1" s="2"/>
-      <c r="DL1" s="2"/>
-      <c r="DM1" s="2"/>
-      <c r="DN1" s="2"/>
-      <c r="DO1" s="2"/>
-      <c r="DP1" s="2"/>
-      <c r="DQ1" s="2"/>
-      <c r="DR1" s="2"/>
-      <c r="DS1" s="2"/>
-      <c r="DT1" s="2"/>
-      <c r="DU1" s="2"/>
-      <c r="DV1" s="2"/>
-      <c r="DW1" s="2"/>
-      <c r="DX1" s="2"/>
-    </row>
-    <row r="2" ht="49.55" customHeight="1">
-      <c r="A2" s="8">
-        <v>367237</v>
-      </c>
-      <c r="B2" s="8">
-        <v>56636</v>
-      </c>
-      <c r="C2" s="8">
-        <v>304492</v>
-      </c>
-      <c r="D2" s="8">
-        <v>6109</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1250</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="8">
-        <v>24074</v>
-      </c>
-      <c r="J2" s="8">
-        <v>22411</v>
-      </c>
-      <c r="K2" s="8">
-        <v>1663</v>
-      </c>
-      <c r="L2" s="8">
-        <v>6434</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="8">
-        <v>6434</v>
-      </c>
-      <c r="O2" s="8">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s" s="6">
-        <v>148</v>
-      </c>
-      <c r="Q2" t="s" s="6">
-        <v>149</v>
-      </c>
-      <c r="R2" t="s" s="6">
-        <v>150</v>
-      </c>
-      <c r="S2" t="s" s="27">
-        <v>151</v>
-      </c>
-      <c r="T2" t="s" s="6">
-        <v>152</v>
-      </c>
-      <c r="U2" t="s" s="6">
-        <v>153</v>
-      </c>
-      <c r="V2" t="s" s="6">
-        <v>154</v>
-      </c>
-      <c r="W2" t="s" s="6">
-        <v>155</v>
-      </c>
-      <c r="X2" t="s" s="6">
-        <v>156</v>
-      </c>
-      <c r="Y2" t="s" s="18">
-        <v>157</v>
-      </c>
-      <c r="Z2" t="s" s="6">
-        <v>158</v>
-      </c>
-      <c r="AA2" t="s" s="6">
-        <v>159</v>
-      </c>
-      <c r="AB2" t="s" s="6">
-        <v>160</v>
-      </c>
-      <c r="AC2" t="s" s="6">
-        <v>161</v>
-      </c>
-      <c r="AD2" t="s" s="6">
-        <v>162</v>
-      </c>
-      <c r="AE2" s="8">
-        <v>493</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>101</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>265</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>537</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>232</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>918</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>274</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>333</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>530</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>613</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>321</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>595</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>228</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>589</v>
-      </c>
-      <c r="AS2" s="8">
-        <v>405</v>
-      </c>
-      <c r="AT2" s="8">
-        <v>22172</v>
-      </c>
-      <c r="AU2" s="8">
-        <v>12475</v>
-      </c>
-      <c r="AV2" s="8">
-        <v>22234</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>32399</v>
-      </c>
-      <c r="AX2" s="8">
-        <v>15323</v>
-      </c>
-      <c r="AY2" s="8">
-        <v>42543</v>
-      </c>
-      <c r="AZ2" s="8">
-        <v>22995</v>
-      </c>
-      <c r="BA2" s="8">
-        <v>18774</v>
-      </c>
-      <c r="BB2" s="8">
-        <v>24240</v>
-      </c>
-      <c r="BC2" s="8">
-        <v>32765</v>
-      </c>
-      <c r="BD2" s="8">
-        <v>14623</v>
-      </c>
-      <c r="BE2" s="8">
-        <v>28644</v>
-      </c>
-      <c r="BF2" s="8">
-        <v>14521</v>
-      </c>
-      <c r="BG2" s="8">
-        <v>27542</v>
-      </c>
-      <c r="BH2" s="8">
-        <v>19447</v>
-      </c>
-      <c r="BI2" s="8">
-        <v>47329</v>
-      </c>
-      <c r="BJ2" s="8">
-        <v>8631</v>
-      </c>
-      <c r="BK2" s="8">
-        <v>676</v>
-      </c>
-      <c r="BL2" s="8">
-        <v>9330</v>
-      </c>
-      <c r="BM2" s="8">
-        <v>296</v>
-      </c>
-      <c r="BN2" s="8">
-        <v>6002</v>
-      </c>
-      <c r="BO2" s="8">
-        <v>76</v>
-      </c>
-      <c r="BP2" s="8">
-        <v>2058</v>
-      </c>
-      <c r="BQ2" s="8">
-        <v>218</v>
-      </c>
-      <c r="BR2" s="8">
-        <v>668</v>
-      </c>
-      <c r="BS2" s="8">
-        <v>2</v>
-      </c>
-      <c r="BT2" s="8">
-        <v>602</v>
-      </c>
-      <c r="BU2" s="8">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="8">
-        <v>1250</v>
-      </c>
-      <c r="BW2" s="8">
-        <v>554</v>
-      </c>
-      <c r="BX2" s="26"/>
-      <c r="BY2" s="8">
-        <v>56000</v>
-      </c>
-      <c r="BZ2" s="8">
-        <v>56726</v>
-      </c>
-      <c r="CA2" s="8">
-        <v>39707</v>
-      </c>
-      <c r="CB2" s="8">
-        <v>57264</v>
-      </c>
-      <c r="CC2" s="8">
-        <v>56253</v>
-      </c>
-      <c r="CD2" s="8">
-        <v>14408</v>
-      </c>
-      <c r="CE2" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="CF2" s="8">
-        <v>249370</v>
-      </c>
-      <c r="CG2" s="8">
-        <v>24266</v>
-      </c>
-      <c r="CH2" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="CI2" s="8">
-        <v>223404</v>
-      </c>
-      <c r="CJ2" s="8">
-        <v>8118</v>
-      </c>
-      <c r="CK2" s="8">
-        <v>85</v>
-      </c>
-      <c r="CL2" s="8">
-        <v>67</v>
-      </c>
-      <c r="CM2" s="8">
-        <v>5</v>
-      </c>
-      <c r="CN2" s="8">
-        <v>5179</v>
-      </c>
-      <c r="CO2" s="8">
-        <v>9</v>
-      </c>
-      <c r="CP2" s="8">
-        <v>158</v>
-      </c>
-      <c r="CQ2" s="8">
-        <v>4</v>
-      </c>
-      <c r="CR2" s="8">
-        <v>5160403</v>
-      </c>
-      <c r="CS2" s="8">
-        <v>87387</v>
-      </c>
-      <c r="CT2" s="8">
-        <v>1256738</v>
-      </c>
-      <c r="CU2" s="8">
-        <v>17707</v>
-      </c>
-      <c r="CV2" s="8">
-        <v>3903665</v>
-      </c>
-      <c r="CW2" s="8">
-        <v>69680</v>
-      </c>
-      <c r="CX2" s="8">
-        <v>14.3</v>
-      </c>
-      <c r="CY2" s="8">
-        <v>497</v>
-      </c>
-      <c r="CZ2" s="8">
-        <v>222</v>
-      </c>
-      <c r="DA2" s="8">
-        <v>222</v>
-      </c>
-      <c r="DB2" s="8">
-        <v>53</v>
-      </c>
-      <c r="DC2" s="8">
-        <v>8</v>
-      </c>
-      <c r="DD2" s="8">
-        <v>9</v>
-      </c>
-      <c r="DE2" s="8">
-        <v>194</v>
-      </c>
-      <c r="DF2" s="8">
-        <v>83</v>
-      </c>
-      <c r="DG2" s="8">
-        <v>1051</v>
-      </c>
-      <c r="DH2" s="8">
-        <v>577</v>
-      </c>
-      <c r="DI2" s="8">
-        <v>2687</v>
-      </c>
-      <c r="DJ2" s="8">
-        <v>1292</v>
-      </c>
-      <c r="DK2" s="8">
-        <v>5901</v>
-      </c>
-      <c r="DL2" s="8">
-        <v>597</v>
-      </c>
-      <c r="DM2" s="8">
-        <v>449</v>
-      </c>
-      <c r="DN2" s="8">
-        <v>44</v>
-      </c>
-      <c r="DO2" s="8">
-        <v>207</v>
-      </c>
-      <c r="DP2" s="8">
-        <v>187</v>
-      </c>
-      <c r="DQ2" s="8">
-        <v>26</v>
-      </c>
-      <c r="DR2" s="8">
-        <v>30</v>
-      </c>
-      <c r="DS2" s="8">
-        <v>59</v>
-      </c>
-      <c r="DT2" s="8">
-        <v>26</v>
-      </c>
-      <c r="DU2" t="s" s="6">
-        <v>146</v>
-      </c>
-      <c r="DV2" s="8">
-        <v>612</v>
-      </c>
-      <c r="DW2" s="8">
-        <v>1924</v>
-      </c>
-      <c r="DX2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="20.35" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="21"/>
-      <c r="AJ3" s="21"/>
-      <c r="AK3" s="21"/>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="21"/>
-      <c r="BD3" s="21"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BK3" s="21"/>
-      <c r="BL3" s="21"/>
-      <c r="BM3" s="21"/>
-      <c r="BN3" s="21"/>
-      <c r="BO3" s="21"/>
-      <c r="BP3" s="21"/>
-      <c r="BQ3" s="21"/>
-      <c r="BR3" s="21"/>
-      <c r="BS3" s="21"/>
-      <c r="BT3" s="21"/>
-      <c r="BU3" s="21"/>
-      <c r="BV3" s="21"/>
-      <c r="BW3" s="21"/>
-      <c r="BX3" s="21"/>
-      <c r="BY3" s="21"/>
-      <c r="BZ3" s="21"/>
-      <c r="CA3" s="21"/>
-      <c r="CB3" s="21"/>
-      <c r="CC3" s="21"/>
-      <c r="CD3" s="21"/>
-      <c r="CE3" s="21"/>
-      <c r="CF3" s="21"/>
-      <c r="CG3" s="21"/>
-      <c r="CH3" s="21"/>
-      <c r="CI3" s="21"/>
-      <c r="CJ3" s="21"/>
-      <c r="CK3" s="21"/>
-      <c r="CL3" s="21"/>
-      <c r="CM3" s="21"/>
-      <c r="CN3" s="21"/>
-      <c r="CO3" s="21"/>
-      <c r="CP3" s="21"/>
-      <c r="CQ3" s="21"/>
-      <c r="CR3" s="21"/>
-      <c r="CS3" s="21"/>
-      <c r="CT3" s="21"/>
-      <c r="CU3" s="21"/>
-      <c r="CV3" s="21"/>
-      <c r="CW3" s="21"/>
-      <c r="CX3" s="21"/>
-      <c r="CY3" s="21"/>
-      <c r="CZ3" s="21"/>
-      <c r="DA3" s="21"/>
-      <c r="DB3" s="21"/>
-      <c r="DC3" s="21"/>
-      <c r="DD3" s="21"/>
-      <c r="DE3" s="21"/>
-      <c r="DF3" s="21"/>
-      <c r="DG3" s="21"/>
-      <c r="DH3" s="21"/>
-      <c r="DI3" s="21"/>
-      <c r="DJ3" s="21"/>
-      <c r="DK3" s="21"/>
-      <c r="DL3" s="21"/>
-      <c r="DM3" s="21"/>
-      <c r="DN3" s="21"/>
-      <c r="DO3" s="21"/>
-      <c r="DP3" s="21"/>
-      <c r="DQ3" s="21"/>
-      <c r="DR3" s="21"/>
-      <c r="DS3" s="21"/>
-      <c r="DT3" s="21"/>
-      <c r="DU3" s="21"/>
-      <c r="DV3" s="21"/>
-      <c r="DW3" s="21"/>
-      <c r="DX3" s="21"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="22"/>
-      <c r="AO4" s="22"/>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="22"/>
-      <c r="AW4" s="22"/>
-      <c r="AX4" s="22"/>
-      <c r="AY4" s="22"/>
-      <c r="AZ4" s="22"/>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
-      <c r="BC4" s="22"/>
-      <c r="BD4" s="22"/>
-      <c r="BE4" s="22"/>
-      <c r="BF4" s="22"/>
-      <c r="BG4" s="22"/>
-      <c r="BH4" s="22"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="22"/>
-      <c r="BK4" s="22"/>
-      <c r="BL4" s="22"/>
-      <c r="BM4" s="22"/>
-      <c r="BN4" s="22"/>
-      <c r="BO4" s="22"/>
-      <c r="BP4" s="22"/>
-      <c r="BQ4" s="22"/>
-      <c r="BR4" s="22"/>
-      <c r="BS4" s="22"/>
-      <c r="BT4" s="22"/>
-      <c r="BU4" s="22"/>
-      <c r="BV4" s="22"/>
-      <c r="BW4" s="22"/>
-      <c r="BX4" s="22"/>
-      <c r="BY4" s="22"/>
-      <c r="BZ4" s="22"/>
-      <c r="CA4" s="22"/>
-      <c r="CB4" s="22"/>
-      <c r="CC4" s="22"/>
-      <c r="CD4" s="22"/>
-      <c r="CE4" s="22"/>
-      <c r="CF4" s="22"/>
-      <c r="CG4" s="22"/>
-      <c r="CH4" s="22"/>
-      <c r="CI4" s="22"/>
-      <c r="CJ4" s="22"/>
-      <c r="CK4" s="22"/>
-      <c r="CL4" s="22"/>
-      <c r="CM4" s="22"/>
-      <c r="CN4" s="22"/>
-      <c r="CO4" s="22"/>
-      <c r="CP4" s="22"/>
-      <c r="CQ4" s="22"/>
-      <c r="CR4" s="22"/>
-      <c r="CS4" s="22"/>
-      <c r="CT4" s="22"/>
-      <c r="CU4" s="22"/>
-      <c r="CV4" s="22"/>
-      <c r="CW4" s="22"/>
-      <c r="CX4" s="22"/>
-      <c r="CY4" s="22"/>
-      <c r="CZ4" s="22"/>
-      <c r="DA4" s="22"/>
-      <c r="DB4" s="22"/>
-      <c r="DC4" s="22"/>
-      <c r="DD4" s="22"/>
-      <c r="DE4" s="22"/>
-      <c r="DF4" s="22"/>
-      <c r="DG4" s="22"/>
-      <c r="DH4" s="22"/>
-      <c r="DI4" s="22"/>
-      <c r="DJ4" s="22"/>
-      <c r="DK4" s="22"/>
-      <c r="DL4" s="22"/>
-      <c r="DM4" s="22"/>
-      <c r="DN4" s="22"/>
-      <c r="DO4" s="22"/>
-      <c r="DP4" s="22"/>
-      <c r="DQ4" s="22"/>
-      <c r="DR4" s="22"/>
-      <c r="DS4" s="22"/>
-      <c r="DT4" s="22"/>
-      <c r="DU4" s="22"/>
-      <c r="DV4" s="22"/>
-      <c r="DW4" s="22"/>
-      <c r="DX4" s="22"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="22"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
-      <c r="BC5" s="22"/>
-      <c r="BD5" s="22"/>
-      <c r="BE5" s="22"/>
-      <c r="BF5" s="22"/>
-      <c r="BG5" s="22"/>
-      <c r="BH5" s="22"/>
-      <c r="BI5" s="22"/>
-      <c r="BJ5" s="22"/>
-      <c r="BK5" s="22"/>
-      <c r="BL5" s="22"/>
-      <c r="BM5" s="22"/>
-      <c r="BN5" s="22"/>
-      <c r="BO5" s="22"/>
-      <c r="BP5" s="22"/>
-      <c r="BQ5" s="22"/>
-      <c r="BR5" s="22"/>
-      <c r="BS5" s="22"/>
-      <c r="BT5" s="22"/>
-      <c r="BU5" s="22"/>
-      <c r="BV5" s="22"/>
-      <c r="BW5" s="22"/>
-      <c r="BX5" s="22"/>
-      <c r="BY5" s="22"/>
-      <c r="BZ5" s="22"/>
-      <c r="CA5" s="22"/>
-      <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="22"/>
-      <c r="CE5" s="22"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
-      <c r="CH5" s="22"/>
-      <c r="CI5" s="22"/>
-      <c r="CJ5" s="22"/>
-      <c r="CK5" s="22"/>
-      <c r="CL5" s="22"/>
-      <c r="CM5" s="22"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
-      <c r="CS5" s="22"/>
-      <c r="CT5" s="22"/>
-      <c r="CU5" s="22"/>
-      <c r="CV5" s="22"/>
-      <c r="CW5" s="22"/>
-      <c r="CX5" s="22"/>
-      <c r="CY5" s="22"/>
-      <c r="CZ5" s="22"/>
-      <c r="DA5" s="22"/>
-      <c r="DB5" s="22"/>
-      <c r="DC5" s="22"/>
-      <c r="DD5" s="22"/>
-      <c r="DE5" s="22"/>
-      <c r="DF5" s="22"/>
-      <c r="DG5" s="22"/>
-      <c r="DH5" s="22"/>
-      <c r="DI5" s="22"/>
-      <c r="DJ5" s="22"/>
-      <c r="DK5" s="22"/>
-      <c r="DL5" s="22"/>
-      <c r="DM5" s="22"/>
-      <c r="DN5" s="22"/>
-      <c r="DO5" s="22"/>
-      <c r="DP5" s="22"/>
-      <c r="DQ5" s="22"/>
-      <c r="DR5" s="22"/>
-      <c r="DS5" s="22"/>
-      <c r="DT5" s="22"/>
-      <c r="DU5" s="22"/>
-      <c r="DV5" s="22"/>
-      <c r="DW5" s="22"/>
-      <c r="DX5" s="22"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="22"/>
-      <c r="BL6" s="22"/>
-      <c r="BM6" s="22"/>
-      <c r="BN6" s="22"/>
-      <c r="BO6" s="22"/>
-      <c r="BP6" s="22"/>
-      <c r="BQ6" s="22"/>
-      <c r="BR6" s="22"/>
-      <c r="BS6" s="22"/>
-      <c r="BT6" s="22"/>
-      <c r="BU6" s="22"/>
-      <c r="BV6" s="22"/>
-      <c r="BW6" s="22"/>
-      <c r="BX6" s="22"/>
-      <c r="BY6" s="22"/>
-      <c r="BZ6" s="22"/>
-      <c r="CA6" s="22"/>
-      <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="22"/>
-      <c r="CE6" s="22"/>
-      <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
-      <c r="CI6" s="22"/>
-      <c r="CJ6" s="22"/>
-      <c r="CK6" s="22"/>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="22"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
-      <c r="CS6" s="22"/>
-      <c r="CT6" s="22"/>
-      <c r="CU6" s="22"/>
-      <c r="CV6" s="22"/>
-      <c r="CW6" s="22"/>
-      <c r="CX6" s="22"/>
-      <c r="CY6" s="22"/>
-      <c r="CZ6" s="22"/>
-      <c r="DA6" s="22"/>
-      <c r="DB6" s="22"/>
-      <c r="DC6" s="22"/>
-      <c r="DD6" s="22"/>
-      <c r="DE6" s="22"/>
-      <c r="DF6" s="22"/>
-      <c r="DG6" s="22"/>
-      <c r="DH6" s="22"/>
-      <c r="DI6" s="22"/>
-      <c r="DJ6" s="22"/>
-      <c r="DK6" s="22"/>
-      <c r="DL6" s="22"/>
-      <c r="DM6" s="22"/>
-      <c r="DN6" s="22"/>
-      <c r="DO6" s="22"/>
-      <c r="DP6" s="22"/>
-      <c r="DQ6" s="22"/>
-      <c r="DR6" s="22"/>
-      <c r="DS6" s="22"/>
-      <c r="DT6" s="22"/>
-      <c r="DU6" s="22"/>
-      <c r="DV6" s="22"/>
-      <c r="DW6" s="22"/>
-      <c r="DX6" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:DX1"/>
-  </mergeCells>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>